--- a/examples/outputs/debug_check_real/20260107_064424/results.xlsx
+++ b/examples/outputs/debug_check_real/20260107_064424/results.xlsx
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6982,10 +6982,10 @@
         <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>1.233736829405193</v>
+        <v>0.8894745343232244</v>
       </c>
       <c r="F222" t="n">
-        <v>6.814657671999692</v>
+        <v>6.751542917901324</v>
       </c>
       <c r="G222" t="n">
         <v>-2.960272879188303</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7011,10 +7011,10 @@
         <v>2</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4468515835035536</v>
+        <v>-0.2416730066603825</v>
       </c>
       <c r="F223" t="n">
-        <v>6.670395376917725</v>
+        <v>6.544165868720988</v>
       </c>
       <c r="G223" t="n">
         <v>-2.960272879188303</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7040,13 +7040,13 @@
         <v>3</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.3400336623980857</v>
+        <v>0.1339626696522185</v>
       </c>
       <c r="F224" t="n">
-        <v>6.526133081835757</v>
+        <v>6.675525280770172</v>
       </c>
       <c r="G224" t="n">
-        <v>-2.960272879188303</v>
+        <v>-2.605788653736337</v>
       </c>
     </row>
     <row r="225">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7069,13 +7069,13 @@
         <v>4</v>
       </c>
       <c r="E225" t="n">
-        <v>0.3335367997088914</v>
+        <v>-0.4392205573829972</v>
       </c>
       <c r="F225" t="n">
-        <v>6.926058949604873</v>
+        <v>5.735534989434852</v>
       </c>
       <c r="G225" t="n">
-        <v>-2.251304428284368</v>
+        <v>-1.586646505561933</v>
       </c>
     </row>
     <row r="226">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7098,13 +7098,13 @@
         <v>5</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.1698136232440663</v>
+        <v>-0.3279800315815666</v>
       </c>
       <c r="F226" t="n">
-        <v>6.304256447428275</v>
+        <v>5.202400438328886</v>
       </c>
       <c r="G226" t="n">
-        <v>-2.251304428284368</v>
+        <v>-1.099230695565478</v>
       </c>
     </row>
     <row r="227">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7127,13 +7127,13 @@
         <v>6</v>
       </c>
       <c r="E227" t="n">
-        <v>0.2219064694314257</v>
+        <v>-0.4335808959647199</v>
       </c>
       <c r="F227" t="n">
-        <v>6.997569219138562</v>
+        <v>5.482282951690694</v>
       </c>
       <c r="G227" t="n">
-        <v>-1.918857758140918</v>
+        <v>-1.365093864654453</v>
       </c>
     </row>
     <row r="228">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7156,13 +7156,13 @@
         <v>7</v>
       </c>
       <c r="E228" t="n">
-        <v>0.2269377332450183</v>
+        <v>-0.3765784994036437</v>
       </c>
       <c r="F228" t="n">
-        <v>6.214234965120314</v>
+        <v>4.986396155969297</v>
       </c>
       <c r="G228" t="n">
-        <v>-1.209889307236983</v>
+        <v>-1.567881345279313</v>
       </c>
     </row>
     <row r="229">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7185,13 +7185,13 @@
         <v>8</v>
       </c>
       <c r="E229" t="n">
-        <v>0.5094361052263785</v>
+        <v>-0.3313787747658274</v>
       </c>
       <c r="F229" t="n">
-        <v>5.465773429817476</v>
+        <v>5.332080829656113</v>
       </c>
       <c r="G229" t="n">
-        <v>-1.209889307236983</v>
+        <v>-1.878055042549785</v>
       </c>
     </row>
     <row r="230">
@@ -7202,7 +7202,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7214,13 +7214,13 @@
         <v>9</v>
       </c>
       <c r="E230" t="n">
-        <v>0.7919344772077387</v>
+        <v>-0.3790148161993906</v>
       </c>
       <c r="F230" t="n">
-        <v>4.717311894514639</v>
+        <v>5.138089258887753</v>
       </c>
       <c r="G230" t="n">
-        <v>-1.209889307236983</v>
+        <v>-1.700812929823801</v>
       </c>
     </row>
     <row r="231">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7243,13 +7243,13 @@
         <v>10</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9459877271575601</v>
+        <v>-0.7730878186693804</v>
       </c>
       <c r="F231" t="n">
-        <v>3.936034205979893</v>
+        <v>4.068767280878176</v>
       </c>
       <c r="G231" t="n">
-        <v>-1.542335977380433</v>
+        <v>-2.167224135260978</v>
       </c>
     </row>
     <row r="232">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7272,13 +7272,13 @@
         <v>11</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8366308353583245</v>
+        <v>-1.746078560370309</v>
       </c>
       <c r="F232" t="n">
-        <v>3.147257748015845</v>
+        <v>3.553587917817658</v>
       </c>
       <c r="G232" t="n">
-        <v>-1.874782647523884</v>
+        <v>3.096819023744207</v>
       </c>
     </row>
     <row r="233">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7301,13 +7301,13 @@
         <v>12</v>
       </c>
       <c r="E233" t="n">
-        <v>0.5971699343912436</v>
+        <v>-2.89052933781938</v>
       </c>
       <c r="F233" t="n">
-        <v>2.383937057278306</v>
+        <v>3.473459971281012</v>
       </c>
       <c r="G233" t="n">
-        <v>-1.874782647523884</v>
+        <v>-2.946593615315247</v>
       </c>
     </row>
     <row r="234">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7330,13 +7330,13 @@
         <v>13</v>
       </c>
       <c r="E234" t="n">
-        <v>0.2363782052422039</v>
+        <v>-4.010253184581991</v>
       </c>
       <c r="F234" t="n">
-        <v>1.674038079535737</v>
+        <v>3.212384485954059</v>
       </c>
       <c r="G234" t="n">
-        <v>-2.207229317667335</v>
+        <v>-2.875358275903879</v>
       </c>
     </row>
     <row r="235">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7359,13 +7359,13 @@
         <v>14</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.4189170481948806</v>
+        <v>-5.138893242585944</v>
       </c>
       <c r="F235" t="n">
-        <v>1.244822518358473</v>
+        <v>2.998692215708566</v>
       </c>
       <c r="G235" t="n">
-        <v>-2.916197768571269</v>
+        <v>-3.040777012300973</v>
       </c>
     </row>
     <row r="236">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7388,13 +7388,13 @@
         <v>15</v>
       </c>
       <c r="E236" t="n">
-        <v>-1.213844446343592</v>
+        <v>-6.265780171390954</v>
       </c>
       <c r="F236" t="n">
-        <v>1.19773045857321</v>
+        <v>2.778379046212562</v>
       </c>
       <c r="G236" t="n">
-        <v>3.034540868464866</v>
+        <v>-2.84788005696828</v>
       </c>
     </row>
     <row r="237">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7417,13 +7417,13 @@
         <v>16</v>
       </c>
       <c r="E237" t="n">
-        <v>-2.009264788576944</v>
+        <v>-7.361168378597213</v>
       </c>
       <c r="F237" t="n">
-        <v>1.283208404040895</v>
+        <v>2.428367392297195</v>
       </c>
       <c r="G237" t="n">
-        <v>3.034540868464866</v>
+        <v>-2.81533334375852</v>
       </c>
     </row>
     <row r="238">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7446,13 +7446,13 @@
         <v>17</v>
       </c>
       <c r="E238" t="n">
-        <v>-2.804685130810297</v>
+        <v>-8.494730011355257</v>
       </c>
       <c r="F238" t="n">
-        <v>1.368686349508579</v>
+        <v>2.310974680986214</v>
       </c>
       <c r="G238" t="n">
-        <v>3.034540868464866</v>
+        <v>3.001440757983889</v>
       </c>
     </row>
     <row r="239">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7475,13 +7475,13 @@
         <v>18</v>
       </c>
       <c r="E239" t="n">
-        <v>-3.599612528959008</v>
+        <v>-8.993297623461601</v>
       </c>
       <c r="F239" t="n">
-        <v>1.321594289723316</v>
+        <v>2.33418083711795</v>
       </c>
       <c r="G239" t="n">
-        <v>-2.916197768571269</v>
+        <v>-3.073656081330189</v>
       </c>
     </row>
     <row r="240">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7504,13 +7504,13 @@
         <v>19</v>
       </c>
       <c r="E240" t="n">
-        <v>-4.394539927107719</v>
+        <v>-9.193052061853114</v>
       </c>
       <c r="F240" t="n">
-        <v>1.274502229938054</v>
+        <v>2.333887042075733</v>
       </c>
       <c r="G240" t="n">
-        <v>3.034540868464866</v>
+        <v>3.032287113123413</v>
       </c>
     </row>
     <row r="241">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7533,13 +7533,13 @@
         <v>20</v>
       </c>
       <c r="E241" t="n">
-        <v>-5.189467325256429</v>
+        <v>-8.677973630612181</v>
       </c>
       <c r="F241" t="n">
-        <v>1.227410170152791</v>
+        <v>2.156965834093426</v>
       </c>
       <c r="G241" t="n">
-        <v>-2.916197768571269</v>
+        <v>2.544871303126955</v>
       </c>
     </row>
     <row r="242">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7562,13 +7562,13 @@
         <v>21</v>
       </c>
       <c r="E242" t="n">
-        <v>-5.969232069023975</v>
+        <v>-9.073592923379479</v>
       </c>
       <c r="F242" t="n">
-        <v>1.048617149100139</v>
+        <v>2.598712885395031</v>
       </c>
       <c r="G242" t="n">
-        <v>-2.916197768571269</v>
+        <v>2.013144964949001</v>
       </c>
     </row>
     <row r="243">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7591,13 +7591,13 @@
         <v>22</v>
       </c>
       <c r="E243" t="n">
-        <v>-6.764159467172686</v>
+        <v>-9.644955761803869</v>
       </c>
       <c r="F243" t="n">
-        <v>1.001525089314876</v>
+        <v>3.595258549173252</v>
       </c>
       <c r="G243" t="n">
-        <v>3.034540868464866</v>
+        <v>2.17673715032253</v>
       </c>
     </row>
     <row r="244">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7620,13 +7620,13 @@
         <v>23</v>
       </c>
       <c r="E244" t="n">
-        <v>-7.530930765825526</v>
+        <v>-9.919402490877845</v>
       </c>
       <c r="F244" t="n">
-        <v>1.216441366000785</v>
+        <v>3.883419006823723</v>
       </c>
       <c r="G244" t="n">
-        <v>2.702094198321415</v>
+        <v>2.531221375774498</v>
       </c>
     </row>
     <row r="245">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7649,13 +7649,13 @@
         <v>24</v>
       </c>
       <c r="E245" t="n">
-        <v>-8.311452080893202</v>
+        <v>-9.415437691697061</v>
       </c>
       <c r="F245" t="n">
-        <v>1.282957107437774</v>
+        <v>3.676957423592817</v>
       </c>
       <c r="G245" t="n">
-        <v>-2.872122657954236</v>
+        <v>3.018637185770956</v>
       </c>
     </row>
     <row r="246">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7678,13 +7678,13 @@
         <v>25</v>
       </c>
       <c r="E246" t="n">
-        <v>-9.103532569136791</v>
+        <v>-9.564876202054602</v>
       </c>
       <c r="F246" t="n">
-        <v>1.20088561076508</v>
+        <v>3.688734296326917</v>
       </c>
       <c r="G246" t="n">
-        <v>3.078615979081899</v>
+        <v>-3.131616536864142</v>
       </c>
     </row>
     <row r="247">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7707,13 +7707,13 @@
         <v>26</v>
       </c>
       <c r="E247" t="n">
-        <v>-9.90194666877612</v>
+        <v>-10.70555925658175</v>
       </c>
       <c r="F247" t="n">
-        <v>1.251233654392619</v>
+        <v>3.560778853318737</v>
       </c>
       <c r="G247" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.918905619188391</v>
       </c>
     </row>
     <row r="248">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7736,13 +7736,13 @@
         <v>27</v>
       </c>
       <c r="E248" t="n">
-        <v>-10.70036076841545</v>
+        <v>-11.84415986476311</v>
       </c>
       <c r="F248" t="n">
-        <v>1.301581698020157</v>
+        <v>3.412814303293413</v>
       </c>
       <c r="G248" t="n">
-        <v>3.078615979081899</v>
+        <v>-3.11431834949888</v>
       </c>
     </row>
     <row r="249">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7765,13 +7765,13 @@
         <v>28</v>
       </c>
       <c r="E249" t="n">
-        <v>-11.49877486805478</v>
+        <v>-12.585108347657</v>
       </c>
       <c r="F249" t="n">
-        <v>1.351929741647695</v>
+        <v>3.308858246335375</v>
       </c>
       <c r="G249" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.874067288593368</v>
       </c>
     </row>
     <row r="250">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7794,13 +7794,13 @@
         <v>29</v>
       </c>
       <c r="E250" t="n">
-        <v>-12.29718896769411</v>
+        <v>-12.04282064635257</v>
       </c>
       <c r="F250" t="n">
-        <v>1.402277785275234</v>
+        <v>3.39116288647294</v>
       </c>
       <c r="G250" t="n">
-        <v>3.078615979081899</v>
+        <v>-3.13125139980836</v>
       </c>
     </row>
     <row r="251">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7823,13 +7823,13 @@
         <v>30</v>
       </c>
       <c r="E251" t="n">
-        <v>-13.09560306733344</v>
+        <v>-12.63828977551932</v>
       </c>
       <c r="F251" t="n">
-        <v>1.452625828902772</v>
+        <v>3.451626033277165</v>
       </c>
       <c r="G251" t="n">
-        <v>3.078615979081899</v>
+        <v>2.908588930621395</v>
       </c>
     </row>
     <row r="252">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7852,13 +7852,13 @@
         <v>31</v>
       </c>
       <c r="E252" t="n">
-        <v>-13.89401716697276</v>
+        <v>-13.74325234795237</v>
       </c>
       <c r="F252" t="n">
-        <v>1.50297387253031</v>
+        <v>3.768677478087518</v>
       </c>
       <c r="G252" t="n">
-        <v>3.078615979081899</v>
+        <v>2.811521971866041</v>
       </c>
     </row>
     <row r="253">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7881,13 +7881,13 @@
         <v>32</v>
       </c>
       <c r="E253" t="n">
-        <v>-14.68609765521635</v>
+        <v>-13.93034915563777</v>
       </c>
       <c r="F253" t="n">
-        <v>1.420902375857616</v>
+        <v>3.839205679958484</v>
       </c>
       <c r="G253" t="n">
-        <v>-2.872122657954236</v>
+        <v>2.730406979616097</v>
       </c>
     </row>
     <row r="254">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7910,13 +7910,13 @@
         <v>33</v>
       </c>
       <c r="E254" t="n">
-        <v>-15.47817814345994</v>
+        <v>-15.05427615624774</v>
       </c>
       <c r="F254" t="n">
-        <v>1.338830879184922</v>
+        <v>3.938651195760284</v>
       </c>
       <c r="G254" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.877550414819364</v>
       </c>
     </row>
     <row r="255">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7939,13 +7939,13 @@
         <v>34</v>
       </c>
       <c r="E255" t="n">
-        <v>-16.27659224309927</v>
+        <v>-15.55151526784069</v>
       </c>
       <c r="F255" t="n">
-        <v>1.389178922812461</v>
+        <v>3.71073891864484</v>
       </c>
       <c r="G255" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.512926042169663</v>
       </c>
     </row>
     <row r="256">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7968,13 +7968,13 @@
         <v>35</v>
       </c>
       <c r="E256" t="n">
-        <v>-17.0750063427386</v>
+        <v>-16.58383656029282</v>
       </c>
       <c r="F256" t="n">
-        <v>1.439526966439999</v>
+        <v>3.220444417087475</v>
       </c>
       <c r="G256" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.900296654621096</v>
       </c>
     </row>
     <row r="257">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7997,13 +7997,13 @@
         <v>36</v>
       </c>
       <c r="E257" t="n">
-        <v>-17.87342044237792</v>
+        <v>-17.71771146075935</v>
       </c>
       <c r="F257" t="n">
-        <v>1.489875010067537</v>
+        <v>3.036895565932634</v>
       </c>
       <c r="G257" t="n">
-        <v>3.078615979081899</v>
+        <v>-3.06926432417324</v>
       </c>
     </row>
     <row r="258">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8026,13 +8026,13 @@
         <v>37</v>
       </c>
       <c r="E258" t="n">
-        <v>-18.67183454201725</v>
+        <v>-18.21479286122759</v>
       </c>
       <c r="F258" t="n">
-        <v>1.540223053695076</v>
+        <v>2.984028539808071</v>
       </c>
       <c r="G258" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.994534921645729</v>
       </c>
     </row>
     <row r="259">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8055,13 +8055,13 @@
         <v>38</v>
       </c>
       <c r="E259" t="n">
-        <v>-19.46391503026084</v>
+        <v>-18.7578986789857</v>
       </c>
       <c r="F259" t="n">
-        <v>1.458151557022382</v>
+        <v>3.024562166352452</v>
       </c>
       <c r="G259" t="n">
-        <v>-2.872122657954236</v>
+        <v>2.801234575537402</v>
       </c>
     </row>
     <row r="260">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8084,13 +8084,13 @@
         <v>39</v>
       </c>
       <c r="E260" t="n">
-        <v>-20.25599551850443</v>
+        <v>-19.8896926138065</v>
       </c>
       <c r="F260" t="n">
-        <v>1.376080060349688</v>
+        <v>3.157924503737722</v>
       </c>
       <c r="G260" t="n">
-        <v>3.078615979081899</v>
+        <v>-3.015539526205007</v>
       </c>
     </row>
     <row r="261">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8113,13 +8113,13 @@
         <v>40</v>
       </c>
       <c r="E261" t="n">
-        <v>-21.05440961814375</v>
+        <v>-21.02369786950686</v>
       </c>
       <c r="F261" t="n">
-        <v>1.426428103977226</v>
+        <v>2.968738826500053</v>
       </c>
       <c r="G261" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.933462761692335</v>
       </c>
     </row>
     <row r="262">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8142,13 +8142,13 @@
         <v>41</v>
       </c>
       <c r="E262" t="n">
-        <v>-21.85282371778308</v>
+        <v>-22.14763591704788</v>
       </c>
       <c r="F262" t="n">
-        <v>1.476776147604764</v>
+        <v>2.725324538822629</v>
       </c>
       <c r="G262" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.922696698308568</v>
       </c>
     </row>
     <row r="263">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -8171,13 +8171,13 @@
         <v>42</v>
       </c>
       <c r="E263" t="n">
-        <v>-22.65123781742241</v>
+        <v>-22.88021547135243</v>
       </c>
       <c r="F263" t="n">
-        <v>1.527124191232303</v>
+        <v>2.564621923717337</v>
       </c>
       <c r="G263" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.929020320226611</v>
       </c>
     </row>
     <row r="264">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8200,13 +8200,13 @@
         <v>43</v>
       </c>
       <c r="E264" t="n">
-        <v>-23.44965191706174</v>
+        <v>-22.38611863731488</v>
       </c>
       <c r="F264" t="n">
-        <v>1.577472234859841</v>
+        <v>2.793696633708656</v>
       </c>
       <c r="G264" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.441604510230158</v>
       </c>
     </row>
     <row r="265">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8229,13 +8229,13 @@
         <v>44</v>
       </c>
       <c r="E265" t="n">
-        <v>-24.24806601670106</v>
+        <v>-22.79560955093728</v>
       </c>
       <c r="F265" t="n">
-        <v>1.627820278487379</v>
+        <v>2.508266819139067</v>
       </c>
       <c r="G265" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.644391990855018</v>
       </c>
     </row>
     <row r="266">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -8258,13 +8258,13 @@
         <v>45</v>
       </c>
       <c r="E266" t="n">
-        <v>-25.04014650494465</v>
+        <v>-23.20550258337541</v>
       </c>
       <c r="F266" t="n">
-        <v>1.545748781814686</v>
+        <v>2.149665918244755</v>
       </c>
       <c r="G266" t="n">
-        <v>-2.872122657954236</v>
+        <v>-2.156976180858565</v>
       </c>
     </row>
     <row r="267">
@@ -8275,7 +8275,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -8287,13 +8287,13 @@
         <v>46</v>
       </c>
       <c r="E267" t="n">
-        <v>-25.83222699318824</v>
+        <v>-23.70269599629987</v>
       </c>
       <c r="F267" t="n">
-        <v>1.463677285141992</v>
+        <v>1.591997533840146</v>
       </c>
       <c r="G267" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.461157401795855</v>
       </c>
     </row>
     <row r="268">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -8316,13 +8316,13 @@
         <v>47</v>
       </c>
       <c r="E268" t="n">
-        <v>-26.63064109282757</v>
+        <v>-23.3388768860068</v>
       </c>
       <c r="F268" t="n">
-        <v>1.51402532876953</v>
+        <v>2.000580640193124</v>
       </c>
       <c r="G268" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.102882089212463</v>
       </c>
     </row>
     <row r="269">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -8345,13 +8345,13 @@
         <v>48</v>
       </c>
       <c r="E269" t="n">
-        <v>-27.42905519246689</v>
+        <v>-23.80519118512639</v>
       </c>
       <c r="F269" t="n">
-        <v>1.564373372397068</v>
+        <v>1.416845862013398</v>
       </c>
       <c r="G269" t="n">
-        <v>3.078615979081899</v>
+        <v>-2.407063310149753</v>
       </c>
     </row>
     <row r="270">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -8374,13 +8374,13 @@
         <v>49</v>
       </c>
       <c r="E270" t="n">
-        <v>-28.22113568071048</v>
+        <v>-23.33067382698968</v>
       </c>
       <c r="F270" t="n">
-        <v>1.482301875724375</v>
+        <v>1.684128822544936</v>
       </c>
       <c r="G270" t="n">
-        <v>-2.872122657954236</v>
+        <v>-2.894479120146206</v>
       </c>
     </row>
     <row r="271">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>D-Hybrid A*</t>
+          <t>Informed RRT*</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -8403,13 +8403,13 @@
         <v>50</v>
       </c>
       <c r="E271" t="n">
-        <v>-27.97937792469317</v>
+        <v>-23.5265385060377</v>
       </c>
       <c r="F271" t="n">
-        <v>1.458919967081659</v>
+        <v>1.64426171572104</v>
       </c>
       <c r="G271" t="n">
-        <v>-2.960272879188303</v>
+        <v>-3.017979080082691</v>
       </c>
     </row>
     <row r="272">
@@ -8429,16 +8429,16 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E272" t="n">
-        <v>2.020622075306832</v>
+        <v>-24.24747231450486</v>
       </c>
       <c r="F272" t="n">
-        <v>6.958919967081659</v>
+        <v>1.448175610581091</v>
       </c>
       <c r="G272" t="n">
-        <v>-2.960272879188303</v>
+        <v>-2.713797859145401</v>
       </c>
     </row>
     <row r="273">
@@ -8458,16 +8458,16 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E273" t="n">
-        <v>0.8894745343232244</v>
+        <v>-25.35306073910939</v>
       </c>
       <c r="F273" t="n">
-        <v>6.751542917901324</v>
+        <v>1.153649504533793</v>
       </c>
       <c r="G273" t="n">
-        <v>-2.960272879188303</v>
+        <v>-3.063907246802568</v>
       </c>
     </row>
     <row r="274">
@@ -8487,16 +8487,16 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.2416730066603825</v>
+        <v>-26.48066269756632</v>
       </c>
       <c r="F274" t="n">
-        <v>6.544165868720988</v>
+        <v>1.318745983036903</v>
       </c>
       <c r="G274" t="n">
-        <v>-2.960272879188303</v>
+        <v>2.752866854939841</v>
       </c>
     </row>
     <row r="275">
@@ -8516,16 +8516,16 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E275" t="n">
-        <v>0.1339626696522185</v>
+        <v>-27.607637310457</v>
       </c>
       <c r="F275" t="n">
-        <v>6.675525280770172</v>
+        <v>1.442888723302931</v>
       </c>
       <c r="G275" t="n">
-        <v>-2.605788653736337</v>
+        <v>-2.946928928785993</v>
       </c>
     </row>
     <row r="276">
@@ -8545,1494 +8545,15 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E276" t="n">
-        <v>-0.4392205573829972</v>
+        <v>-27.97937792469317</v>
       </c>
       <c r="F276" t="n">
-        <v>5.735534989434852</v>
+        <v>1.458919967081659</v>
       </c>
       <c r="G276" t="n">
-        <v>-1.586646505561933</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>5</v>
-      </c>
-      <c r="E277" t="n">
-        <v>-0.3279800315815666</v>
-      </c>
-      <c r="F277" t="n">
-        <v>5.202400438328886</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1.099230695565478</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>6</v>
-      </c>
-      <c r="E278" t="n">
-        <v>-0.4335808959647199</v>
-      </c>
-      <c r="F278" t="n">
-        <v>5.482282951690694</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1.365093864654453</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>7</v>
-      </c>
-      <c r="E279" t="n">
-        <v>-0.3765784994036437</v>
-      </c>
-      <c r="F279" t="n">
-        <v>4.986396155969297</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1.567881345279313</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>8</v>
-      </c>
-      <c r="E280" t="n">
-        <v>-0.3313787747658274</v>
-      </c>
-      <c r="F280" t="n">
-        <v>5.332080829656113</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1.878055042549785</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>9</v>
-      </c>
-      <c r="E281" t="n">
-        <v>-0.3790148161993906</v>
-      </c>
-      <c r="F281" t="n">
-        <v>5.138089258887753</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1.700812929823801</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>10</v>
-      </c>
-      <c r="E282" t="n">
-        <v>-0.7730878186693804</v>
-      </c>
-      <c r="F282" t="n">
-        <v>4.068767280878176</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-2.167224135260978</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>11</v>
-      </c>
-      <c r="E283" t="n">
-        <v>-1.746078560370309</v>
-      </c>
-      <c r="F283" t="n">
-        <v>3.553587917817658</v>
-      </c>
-      <c r="G283" t="n">
-        <v>3.096819023744207</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>12</v>
-      </c>
-      <c r="E284" t="n">
-        <v>-2.89052933781938</v>
-      </c>
-      <c r="F284" t="n">
-        <v>3.473459971281012</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-2.946593615315247</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>13</v>
-      </c>
-      <c r="E285" t="n">
-        <v>-4.010253184581991</v>
-      </c>
-      <c r="F285" t="n">
-        <v>3.212384485954059</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-2.875358275903879</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>14</v>
-      </c>
-      <c r="E286" t="n">
-        <v>-5.138893242585944</v>
-      </c>
-      <c r="F286" t="n">
-        <v>2.998692215708566</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-3.040777012300973</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>15</v>
-      </c>
-      <c r="E287" t="n">
-        <v>-6.265780171390954</v>
-      </c>
-      <c r="F287" t="n">
-        <v>2.778379046212562</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-2.84788005696828</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>16</v>
-      </c>
-      <c r="E288" t="n">
-        <v>-7.361168378597213</v>
-      </c>
-      <c r="F288" t="n">
-        <v>2.428367392297195</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-2.81533334375852</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>17</v>
-      </c>
-      <c r="E289" t="n">
-        <v>-8.494730011355257</v>
-      </c>
-      <c r="F289" t="n">
-        <v>2.310974680986214</v>
-      </c>
-      <c r="G289" t="n">
-        <v>3.001440757983889</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>18</v>
-      </c>
-      <c r="E290" t="n">
-        <v>-8.993297623461601</v>
-      </c>
-      <c r="F290" t="n">
-        <v>2.33418083711795</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-3.073656081330189</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>19</v>
-      </c>
-      <c r="E291" t="n">
-        <v>-9.193052061853114</v>
-      </c>
-      <c r="F291" t="n">
-        <v>2.333887042075733</v>
-      </c>
-      <c r="G291" t="n">
-        <v>3.032287113123413</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D292" t="n">
-        <v>20</v>
-      </c>
-      <c r="E292" t="n">
-        <v>-8.677973630612181</v>
-      </c>
-      <c r="F292" t="n">
-        <v>2.156965834093426</v>
-      </c>
-      <c r="G292" t="n">
-        <v>2.544871303126955</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>21</v>
-      </c>
-      <c r="E293" t="n">
-        <v>-9.073592923379479</v>
-      </c>
-      <c r="F293" t="n">
-        <v>2.598712885395031</v>
-      </c>
-      <c r="G293" t="n">
-        <v>2.013144964949001</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>22</v>
-      </c>
-      <c r="E294" t="n">
-        <v>-9.644955761803869</v>
-      </c>
-      <c r="F294" t="n">
-        <v>3.595258549173252</v>
-      </c>
-      <c r="G294" t="n">
-        <v>2.17673715032253</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>23</v>
-      </c>
-      <c r="E295" t="n">
-        <v>-9.919402490877845</v>
-      </c>
-      <c r="F295" t="n">
-        <v>3.883419006823723</v>
-      </c>
-      <c r="G295" t="n">
-        <v>2.531221375774498</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>24</v>
-      </c>
-      <c r="E296" t="n">
-        <v>-9.415437691697061</v>
-      </c>
-      <c r="F296" t="n">
-        <v>3.676957423592817</v>
-      </c>
-      <c r="G296" t="n">
-        <v>3.018637185770956</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>25</v>
-      </c>
-      <c r="E297" t="n">
-        <v>-9.564876202054602</v>
-      </c>
-      <c r="F297" t="n">
-        <v>3.688734296326917</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-3.131616536864142</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>26</v>
-      </c>
-      <c r="E298" t="n">
-        <v>-10.70555925658175</v>
-      </c>
-      <c r="F298" t="n">
-        <v>3.560778853318737</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-2.918905619188391</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>27</v>
-      </c>
-      <c r="E299" t="n">
-        <v>-11.84415986476311</v>
-      </c>
-      <c r="F299" t="n">
-        <v>3.412814303293413</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-3.11431834949888</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D300" t="n">
-        <v>28</v>
-      </c>
-      <c r="E300" t="n">
-        <v>-12.585108347657</v>
-      </c>
-      <c r="F300" t="n">
-        <v>3.308858246335375</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-2.874067288593368</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>29</v>
-      </c>
-      <c r="E301" t="n">
-        <v>-12.04282064635257</v>
-      </c>
-      <c r="F301" t="n">
-        <v>3.39116288647294</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-3.13125139980836</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>30</v>
-      </c>
-      <c r="E302" t="n">
-        <v>-12.63828977551932</v>
-      </c>
-      <c r="F302" t="n">
-        <v>3.451626033277165</v>
-      </c>
-      <c r="G302" t="n">
-        <v>2.908588930621395</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D303" t="n">
-        <v>31</v>
-      </c>
-      <c r="E303" t="n">
-        <v>-13.74325234795237</v>
-      </c>
-      <c r="F303" t="n">
-        <v>3.768677478087518</v>
-      </c>
-      <c r="G303" t="n">
-        <v>2.811521971866041</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D304" t="n">
-        <v>32</v>
-      </c>
-      <c r="E304" t="n">
-        <v>-13.93034915563777</v>
-      </c>
-      <c r="F304" t="n">
-        <v>3.839205679958484</v>
-      </c>
-      <c r="G304" t="n">
-        <v>2.730406979616097</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>33</v>
-      </c>
-      <c r="E305" t="n">
-        <v>-15.05427615624774</v>
-      </c>
-      <c r="F305" t="n">
-        <v>3.938651195760284</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-2.877550414819364</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>34</v>
-      </c>
-      <c r="E306" t="n">
-        <v>-15.55151526784069</v>
-      </c>
-      <c r="F306" t="n">
-        <v>3.71073891864484</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-2.512926042169663</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>35</v>
-      </c>
-      <c r="E307" t="n">
-        <v>-16.58383656029282</v>
-      </c>
-      <c r="F307" t="n">
-        <v>3.220444417087475</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-2.900296654621096</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>36</v>
-      </c>
-      <c r="E308" t="n">
-        <v>-17.71771146075935</v>
-      </c>
-      <c r="F308" t="n">
-        <v>3.036895565932634</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-3.06926432417324</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D309" t="n">
-        <v>37</v>
-      </c>
-      <c r="E309" t="n">
-        <v>-18.21479286122759</v>
-      </c>
-      <c r="F309" t="n">
-        <v>2.984028539808071</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-2.994534921645729</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D310" t="n">
-        <v>38</v>
-      </c>
-      <c r="E310" t="n">
-        <v>-18.7578986789857</v>
-      </c>
-      <c r="F310" t="n">
-        <v>3.024562166352452</v>
-      </c>
-      <c r="G310" t="n">
-        <v>2.801234575537402</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>39</v>
-      </c>
-      <c r="E311" t="n">
-        <v>-19.8896926138065</v>
-      </c>
-      <c r="F311" t="n">
-        <v>3.157924503737722</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-3.015539526205007</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D312" t="n">
-        <v>40</v>
-      </c>
-      <c r="E312" t="n">
-        <v>-21.02369786950686</v>
-      </c>
-      <c r="F312" t="n">
-        <v>2.968738826500053</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-2.933462761692335</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D313" t="n">
-        <v>41</v>
-      </c>
-      <c r="E313" t="n">
-        <v>-22.14763591704788</v>
-      </c>
-      <c r="F313" t="n">
-        <v>2.725324538822629</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-2.922696698308568</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>42</v>
-      </c>
-      <c r="E314" t="n">
-        <v>-22.88021547135243</v>
-      </c>
-      <c r="F314" t="n">
-        <v>2.564621923717337</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-2.929020320226611</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D315" t="n">
-        <v>43</v>
-      </c>
-      <c r="E315" t="n">
-        <v>-22.38611863731488</v>
-      </c>
-      <c r="F315" t="n">
-        <v>2.793696633708656</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-2.441604510230158</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>44</v>
-      </c>
-      <c r="E316" t="n">
-        <v>-22.79560955093728</v>
-      </c>
-      <c r="F316" t="n">
-        <v>2.508266819139067</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-2.644391990855018</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D317" t="n">
-        <v>45</v>
-      </c>
-      <c r="E317" t="n">
-        <v>-23.20550258337541</v>
-      </c>
-      <c r="F317" t="n">
-        <v>2.149665918244755</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-2.156976180858565</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>46</v>
-      </c>
-      <c r="E318" t="n">
-        <v>-23.70269599629987</v>
-      </c>
-      <c r="F318" t="n">
-        <v>1.591997533840146</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-2.461157401795855</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D319" t="n">
-        <v>47</v>
-      </c>
-      <c r="E319" t="n">
-        <v>-23.3388768860068</v>
-      </c>
-      <c r="F319" t="n">
-        <v>2.000580640193124</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-2.102882089212463</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D320" t="n">
-        <v>48</v>
-      </c>
-      <c r="E320" t="n">
-        <v>-23.80519118512639</v>
-      </c>
-      <c r="F320" t="n">
-        <v>1.416845862013398</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-2.407063310149753</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>49</v>
-      </c>
-      <c r="E321" t="n">
-        <v>-23.33067382698968</v>
-      </c>
-      <c r="F321" t="n">
-        <v>1.684128822544936</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-2.894479120146206</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D322" t="n">
-        <v>50</v>
-      </c>
-      <c r="E322" t="n">
-        <v>-23.5265385060377</v>
-      </c>
-      <c r="F322" t="n">
-        <v>1.64426171572104</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-3.017979080082691</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D323" t="n">
-        <v>51</v>
-      </c>
-      <c r="E323" t="n">
-        <v>-24.24747231450486</v>
-      </c>
-      <c r="F323" t="n">
-        <v>1.448175610581091</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-2.713797859145401</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>52</v>
-      </c>
-      <c r="E324" t="n">
-        <v>-25.35306073910939</v>
-      </c>
-      <c r="F324" t="n">
-        <v>1.153649504533793</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-3.063907246802568</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D325" t="n">
-        <v>53</v>
-      </c>
-      <c r="E325" t="n">
-        <v>-26.48066269756632</v>
-      </c>
-      <c r="F325" t="n">
-        <v>1.318745983036903</v>
-      </c>
-      <c r="G325" t="n">
-        <v>2.752866854939841</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D326" t="n">
-        <v>54</v>
-      </c>
-      <c r="E326" t="n">
-        <v>-27.607637310457</v>
-      </c>
-      <c r="F326" t="n">
-        <v>1.442888723302931</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-2.946928928785993</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>real_env1</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Informed RRT*</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="D327" t="n">
-        <v>55</v>
-      </c>
-      <c r="E327" t="n">
-        <v>-27.97937792469317</v>
-      </c>
-      <c r="F327" t="n">
-        <v>1.458919967081659</v>
-      </c>
-      <c r="G327" t="n">
         <v>-2.960272879188303</v>
       </c>
     </row>
